--- a/solr/solrMetrics/q3/q3Metrics.xlsx
+++ b/solr/solrMetrics/q3/q3Metrics.xlsx
@@ -438,36 +438,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -587,7 +557,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.857142857142857</c:v>
@@ -714,25 +684,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.875</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,11 +717,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="68384785"/>
-        <c:axId val="748461"/>
+        <c:axId val="77200726"/>
+        <c:axId val="1214356"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68384785"/>
+        <c:axId val="77200726"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +782,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="748461"/>
+        <c:crossAx val="1214356"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="748461"/>
+        <c:axId val="1214356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +861,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68384785"/>
+        <c:crossAx val="77200726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,7 +1225,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.857142857142857</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.777777777777778</c:v>
@@ -1382,25 +1352,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.777777777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,11 +1385,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="8793118"/>
-        <c:axId val="31941511"/>
+        <c:axId val="95029088"/>
+        <c:axId val="4937922"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8793118"/>
+        <c:axId val="95029088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31941511"/>
+        <c:crossAx val="4937922"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31941511"/>
+        <c:axId val="4937922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1509,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8793118"/>
+        <c:crossAx val="95029088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1741,11 +1711,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="89102193"/>
-        <c:axId val="52805677"/>
+        <c:axId val="27333950"/>
+        <c:axId val="92492594"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89102193"/>
+        <c:axId val="27333950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52805677"/>
+        <c:crossAx val="92492594"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52805677"/>
+        <c:axId val="92492594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89102193"/>
+        <c:crossAx val="27333950"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2135,11 +2105,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="28159537"/>
-        <c:axId val="29431285"/>
+        <c:axId val="48060479"/>
+        <c:axId val="39382766"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28159537"/>
+        <c:axId val="48060479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29431285"/>
+        <c:crossAx val="39382766"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29431285"/>
+        <c:axId val="39382766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2265,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28159537"/>
+        <c:crossAx val="48060479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2359,9 +2329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2369,8 +2339,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1440000" y="4924440"/>
-        <a:ext cx="5108040" cy="3151800"/>
+        <a:off x="1440000" y="4899600"/>
+        <a:ext cx="5107680" cy="3151440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2389,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2399,8 +2369,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7053480" y="4857480"/>
-        <a:ext cx="5116680" cy="3151800"/>
+        <a:off x="7053480" y="4833000"/>
+        <a:ext cx="5119920" cy="3151440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2424,9 +2394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>792720</xdr:colOff>
+      <xdr:colOff>792360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2434,8 +2404,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4648320" y="2724120"/>
-        <a:ext cx="4361760" cy="2665800"/>
+        <a:off x="4649760" y="2724120"/>
+        <a:ext cx="4366440" cy="2665440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2454,9 +2424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>801360</xdr:colOff>
+      <xdr:colOff>801000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2465,7 +2435,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="200160" y="2724120"/>
-        <a:ext cx="4351680" cy="2665800"/>
+        <a:ext cx="4351320" cy="2665440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2485,11 +2455,11 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="9.51"/>
@@ -2565,19 +2535,14 @@
       <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false">SUM(B4)/A4</f>
-        <v>0</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5" t="n">
         <f aca="false">SUM(C4)/A4</f>
         <v>1</v>
@@ -2596,7 +2561,7 @@
       </c>
       <c r="L4" s="5" t="n">
         <f aca="false">SUMIF(D$4:D4,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.125</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0</v>
@@ -2618,19 +2583,14 @@
       <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false">SUM(B$4:B5)/A5</f>
-        <v>0</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="n">
         <f aca="false">SUM(C$4:C5)/A5</f>
         <v>1</v>
@@ -2649,7 +2609,7 @@
       </c>
       <c r="L5" s="5" t="n">
         <f aca="false">SUMIF(D$4:D5,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.25</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1</v>
@@ -2671,19 +2631,14 @@
       <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false">SUM(B$4:B6)/A6</f>
-        <v>0</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="n">
         <f aca="false">SUM(C$4:C6)/A6</f>
         <v>1</v>
@@ -2702,7 +2657,7 @@
       </c>
       <c r="L6" s="5" t="n">
         <f aca="false">SUMIF(D$4:D6,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.375</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2</v>
@@ -2724,26 +2679,21 @@
       <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <f aca="false">SUM(B$4:B7)/A7</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="n">
         <f aca="false">SUM(C$4:C7)/A7</f>
         <v>1</v>
       </c>
       <c r="H7" s="5" t="n">
         <f aca="false">SUM(D$4:D7)/A7</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5" t="e">
         <f aca="false">SUMIF(B$4:B7,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2755,7 +2705,7 @@
       </c>
       <c r="L7" s="5" t="n">
         <f aca="false">SUMIF(D$4:D7,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.375</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3</v>
@@ -2777,26 +2727,21 @@
       <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <f aca="false">SUM(B$4:B8)/A8</f>
-        <v>0</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="n">
         <f aca="false">SUM(C$4:C8)/A8</f>
         <v>1</v>
       </c>
       <c r="H8" s="5" t="n">
         <f aca="false">SUM(D$4:D8)/A8</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5" t="e">
         <f aca="false">SUMIF(B$4:B8,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2808,7 +2753,7 @@
       </c>
       <c r="L8" s="5" t="n">
         <f aca="false">SUMIF(D$4:D8,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.5</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4</v>
@@ -2823,33 +2768,28 @@
       </c>
       <c r="Q8" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N8)</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <f aca="false">SUM(B$4:B9)/A9</f>
-        <v>0</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="n">
         <f aca="false">SUM(C$4:C9)/A9</f>
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
         <f aca="false">SUM(D$4:D9)/A9</f>
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="e">
         <f aca="false">SUMIF(B$4:B9,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2857,11 +2797,11 @@
       </c>
       <c r="K9" s="5" t="n">
         <f aca="false">SUMIF(C$4:C9,"=1")/SUMIF(C$4:C$23,"=1")</f>
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="L9" s="5" t="n">
         <f aca="false">SUMIF(D$4:D9,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.625</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5</v>
@@ -2876,26 +2816,21 @@
       </c>
       <c r="Q9" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N9)</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false">SUM(B$4:B10)/A10</f>
         <v>0</v>
       </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="n">
         <f aca="false">SUM(C$4:C10)/A10</f>
         <v>0.857142857142857</v>
@@ -2914,7 +2849,7 @@
       </c>
       <c r="L10" s="5" t="n">
         <f aca="false">SUMIF(D$4:D10,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.75</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6</v>
@@ -2929,33 +2864,28 @@
       </c>
       <c r="Q10" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N10)</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <f aca="false">SUM(B$4:B11)/A11</f>
         <v>0</v>
       </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5" t="n">
         <f aca="false">SUM(C$4:C11)/A11</f>
         <v>0.75</v>
       </c>
       <c r="H11" s="5" t="n">
         <f aca="false">SUM(D$4:D11)/A11</f>
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="5" t="e">
         <f aca="false">SUMIF(B$4:B11,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -2967,7 +2897,7 @@
       </c>
       <c r="L11" s="5" t="n">
         <f aca="false">SUMIF(D$4:D11,"=1")/SUMIF(D$4:D$23,"=1")</f>
-        <v>0.875</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7</v>
@@ -2982,33 +2912,28 @@
       </c>
       <c r="Q11" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N11)</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false">SUM(B$4:B12)/A12</f>
-        <v>0</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5" t="n">
         <f aca="false">SUM(C$4:C12)/A12</f>
         <v>0.777777777777778</v>
       </c>
       <c r="H12" s="5" t="n">
         <f aca="false">SUM(D$4:D12)/A12</f>
-        <v>0.888888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="J12" s="5" t="e">
         <f aca="false">SUMIF(B$4:B12,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -3031,37 +2956,32 @@
       </c>
       <c r="P12" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(G$4:G$13,K$4:K$13,"&gt;="&amp;$N12)</f>
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N12)</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false">SUM(B$4:B13)/A13</f>
-        <v>0</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="n">
         <f aca="false">SUM(C$4:C13)/A13</f>
         <v>0.7</v>
       </c>
       <c r="H13" s="5" t="n">
         <f aca="false">SUM(D$4:D13)/A13</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J13" s="5" t="e">
         <f aca="false">SUMIF(B$4:B13,"=1")/SUMIF(B$4:B$23,"=1")</f>
@@ -3088,7 +3008,7 @@
       </c>
       <c r="Q13" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N13)</f>
-        <v>0.888888888888889</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +3035,7 @@
       </c>
       <c r="Q14" s="5" t="n">
         <f aca="false">_xlfn.MAXIFS(H$4:H$13,L$4:L$13,"&gt;="&amp;$N14)</f>
-        <v>0.888888888888889</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,21 +3146,21 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5" t="e">
         <f aca="false">AVERAGE(F4:F13)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G25" s="5" t="n">
         <f aca="false">AVERAGE(G4:G13)</f>
-        <v>0.891825396825397</v>
+        <v>0.908492063492064</v>
       </c>
       <c r="H25" s="5" t="n">
         <f aca="false">AVERAGE(H4:H13)</f>
-        <v>0.880436507936508</v>
+        <v>0.908492063492064</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3191,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.75"/>
